--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value407.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value407.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.110490161800725</v>
+        <v>3.113709449768066</v>
       </c>
       <c r="B1">
-        <v>1.451666183515533</v>
+        <v>2.823112964630127</v>
       </c>
       <c r="C1">
-        <v>2.264368874619279</v>
+        <v>1.956591606140137</v>
       </c>
       <c r="D1">
-        <v>3.57542509725164</v>
+        <v>1.751981139183044</v>
       </c>
       <c r="E1">
-        <v>0.8169451656497418</v>
+        <v>1.67714536190033</v>
       </c>
     </row>
   </sheetData>
